--- a/GRAFICOS SPRINT1.xlsx
+++ b/GRAFICOS SPRINT1.xlsx
@@ -1524,97 +1524,97 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
+                  <c:v>232</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>232</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>232</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>232</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>232</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>232</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>232</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>232</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>232</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>232</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>232</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>232</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>232</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>232</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>232</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>232</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>224</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>208</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>184</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>184</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>184</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>184</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>184</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>184</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>184</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>184</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>174</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>164</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>156</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>148</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>139</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>131</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>123</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>114</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>106</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>96</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>88</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>72</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>64</c:v>
-                </c:pt>
                 <c:pt idx="22">
-                  <c:v>54</c:v>
+                  <c:v>176</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>46</c:v>
+                  <c:v>168</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>36</c:v>
+                  <c:v>160</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>29</c:v>
+                  <c:v>152</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>21</c:v>
+                  <c:v>144</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>13</c:v>
+                  <c:v>136</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>5</c:v>
+                  <c:v>128</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-3</c:v>
+                  <c:v>120</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-11</c:v>
+                  <c:v>112</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1650,97 +1650,97 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>184</c:v>
+                  <c:v>232</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>177.86666666666667</c:v>
+                  <c:v>224.26666666666668</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>171.73333333333335</c:v>
+                  <c:v>216.53333333333336</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>165.60000000000002</c:v>
+                  <c:v>208.80000000000004</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>159.4666666666667</c:v>
+                  <c:v>201.06666666666672</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>153.33333333333337</c:v>
+                  <c:v>193.3333333333334</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>147.20000000000005</c:v>
+                  <c:v>185.60000000000008</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>141.06666666666672</c:v>
+                  <c:v>177.86666666666676</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>134.93333333333339</c:v>
+                  <c:v>170.13333333333344</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>128.80000000000007</c:v>
+                  <c:v>162.40000000000012</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>122.66666666666673</c:v>
+                  <c:v>154.6666666666668</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>116.53333333333339</c:v>
+                  <c:v>146.93333333333348</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>110.40000000000005</c:v>
+                  <c:v>139.20000000000016</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>104.26666666666671</c:v>
+                  <c:v>131.46666666666684</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>98.133333333333368</c:v>
+                  <c:v>123.7333333333335</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>92.000000000000028</c:v>
+                  <c:v>116.00000000000017</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>85.866666666666688</c:v>
+                  <c:v>108.26666666666684</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>79.733333333333348</c:v>
+                  <c:v>100.5333333333335</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>73.600000000000009</c:v>
+                  <c:v>92.800000000000168</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>67.466666666666669</c:v>
+                  <c:v>85.066666666666833</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>61.333333333333336</c:v>
+                  <c:v>77.333333333333499</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>55.2</c:v>
+                  <c:v>69.600000000000165</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>49.06666666666667</c:v>
+                  <c:v>61.866666666666831</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>42.933333333333337</c:v>
+                  <c:v>54.133333333333496</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>36.800000000000004</c:v>
+                  <c:v>46.400000000000162</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>30.666666666666671</c:v>
+                  <c:v>38.666666666666828</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>24.533333333333339</c:v>
+                  <c:v>30.933333333333493</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>18.400000000000006</c:v>
+                  <c:v>23.200000000000159</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>12.266666666666673</c:v>
+                  <c:v>15.466666666666825</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>6.1333333333333391</c:v>
+                  <c:v>7.7333333333334915</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0</c:v>
+                  <c:v>1.5809575870662229E-13</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1797,58 +1797,58 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>10</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>10</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>9</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>8</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>8</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>9</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>10</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>10</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>6</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>10</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>10</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>7</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>8</c:v>
@@ -1884,11 +1884,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-2143552192"/>
-        <c:axId val="-2143557088"/>
+        <c:axId val="333538864"/>
+        <c:axId val="333545392"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2143552192"/>
+        <c:axId val="333538864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1897,7 +1897,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2143557088"/>
+        <c:crossAx val="333545392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1905,7 +1905,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2143557088"/>
+        <c:axId val="333545392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1916,7 +1916,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2143552192"/>
+        <c:crossAx val="333538864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2030,10 +2030,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="1">
-                  <c:v>32</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>32</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>8</c:v>
@@ -2081,11 +2081,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-2143559808"/>
-        <c:axId val="-2143553280"/>
+        <c:axId val="333544304"/>
+        <c:axId val="333544848"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2143559808"/>
+        <c:axId val="333544304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2127,7 +2127,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2143553280"/>
+        <c:crossAx val="333544848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2135,7 +2135,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2143553280"/>
+        <c:axId val="333544848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2186,7 +2186,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2143559808"/>
+        <c:crossAx val="333544304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2250,6 +2250,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2360,25 +2361,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>32</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>33</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>32</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>35</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>17</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>36</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -2594,10 +2595,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>32</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>32</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>8</c:v>
@@ -2646,11 +2647,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2143546752"/>
-        <c:axId val="-2143546208"/>
+        <c:axId val="333531792"/>
+        <c:axId val="333539408"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2143546752"/>
+        <c:axId val="333531792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2707,7 +2708,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2143546208"/>
+        <c:crossAx val="333539408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2715,7 +2716,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2143546208"/>
+        <c:axId val="333539408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2758,7 +2759,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2143546752"/>
+        <c:crossAx val="333531792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2772,6 +2773,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3207,7 +3209,7 @@
   <dimension ref="A2:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -10106,7 +10108,7 @@
   <dimension ref="A1:AI32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -10338,11 +10340,11 @@
         <v>109</v>
       </c>
       <c r="B6" s="7">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C6" s="51">
         <f>B6*8</f>
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="D6" s="46"/>
       <c r="E6" s="46"/>
@@ -10367,9 +10369,15 @@
       <c r="X6" s="47"/>
       <c r="Y6" s="47"/>
       <c r="Z6" s="47"/>
-      <c r="AA6" s="47"/>
-      <c r="AB6" s="47"/>
-      <c r="AC6" s="47"/>
+      <c r="AA6" s="47">
+        <v>8</v>
+      </c>
+      <c r="AB6" s="47">
+        <v>8</v>
+      </c>
+      <c r="AC6" s="47">
+        <v>8</v>
+      </c>
       <c r="AD6" s="47">
         <v>8</v>
       </c>
@@ -10384,7 +10392,7 @@
       </c>
       <c r="AH6" s="46">
         <f>SUM(D6:AG6)</f>
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="AI6" s="53">
         <v>30</v>
@@ -10395,11 +10403,11 @@
         <v>110</v>
       </c>
       <c r="B7" s="7">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C7" s="51">
         <f t="shared" ref="C7:C16" si="0">B7*8</f>
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="D7" s="46"/>
       <c r="E7" s="46"/>
@@ -10416,32 +10424,40 @@
       <c r="P7" s="47"/>
       <c r="Q7" s="47"/>
       <c r="R7" s="47"/>
-      <c r="S7" s="47"/>
-      <c r="T7" s="47"/>
-      <c r="U7" s="47"/>
-      <c r="V7" s="47"/>
-      <c r="W7" s="47"/>
-      <c r="X7" s="47"/>
-      <c r="Y7" s="47"/>
+      <c r="S7" s="47">
+        <v>8</v>
+      </c>
+      <c r="T7" s="47">
+        <v>8</v>
+      </c>
+      <c r="U7" s="47">
+        <v>8</v>
+      </c>
+      <c r="V7" s="47">
+        <v>8</v>
+      </c>
+      <c r="W7" s="47">
+        <v>8</v>
+      </c>
+      <c r="X7" s="47">
+        <v>8</v>
+      </c>
+      <c r="Y7" s="47">
+        <v>8</v>
+      </c>
       <c r="Z7" s="47">
         <v>8</v>
       </c>
-      <c r="AA7" s="47">
-        <v>10</v>
-      </c>
-      <c r="AB7" s="47">
-        <v>7</v>
-      </c>
-      <c r="AC7" s="47">
-        <v>8</v>
-      </c>
+      <c r="AA7" s="47"/>
+      <c r="AB7" s="47"/>
+      <c r="AC7" s="47"/>
       <c r="AD7" s="47"/>
       <c r="AE7" s="47"/>
       <c r="AF7" s="47"/>
       <c r="AG7" s="47"/>
       <c r="AH7" s="46">
         <f t="shared" ref="AH7:AH16" si="1">SUM(D7:AG7)</f>
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="AI7" s="54">
         <v>30</v>
@@ -10479,9 +10495,7 @@
       <c r="V8" s="47"/>
       <c r="W8" s="47"/>
       <c r="X8" s="47"/>
-      <c r="Y8" s="47">
-        <v>10</v>
-      </c>
+      <c r="Y8" s="47"/>
       <c r="Z8" s="47"/>
       <c r="AA8" s="47"/>
       <c r="AB8" s="47"/>
@@ -10492,7 +10506,7 @@
       <c r="AG8" s="47"/>
       <c r="AH8" s="46">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AI8" s="54">
         <v>32</v>
@@ -10526,18 +10540,10 @@
       <c r="R9" s="47"/>
       <c r="S9" s="47"/>
       <c r="T9" s="47"/>
-      <c r="U9" s="47">
-        <v>8</v>
-      </c>
-      <c r="V9" s="47">
-        <v>10</v>
-      </c>
-      <c r="W9" s="47">
-        <v>6</v>
-      </c>
-      <c r="X9" s="47">
-        <v>8</v>
-      </c>
+      <c r="U9" s="47"/>
+      <c r="V9" s="47"/>
+      <c r="W9" s="47"/>
+      <c r="X9" s="47"/>
       <c r="Y9" s="47"/>
       <c r="Z9" s="47"/>
       <c r="AA9" s="47"/>
@@ -10549,7 +10555,7 @@
       <c r="AG9" s="47"/>
       <c r="AH9" s="46">
         <f t="shared" si="1"/>
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="AI9" s="54">
         <v>32</v>
@@ -10579,18 +10585,10 @@
       <c r="N10" s="47"/>
       <c r="O10" s="47"/>
       <c r="P10" s="47"/>
-      <c r="Q10" s="47">
-        <v>8</v>
-      </c>
-      <c r="R10" s="47">
-        <v>9</v>
-      </c>
-      <c r="S10" s="47">
-        <v>8</v>
-      </c>
-      <c r="T10" s="47">
-        <v>10</v>
-      </c>
+      <c r="Q10" s="47"/>
+      <c r="R10" s="47"/>
+      <c r="S10" s="47"/>
+      <c r="T10" s="47"/>
       <c r="U10" s="47"/>
       <c r="V10" s="47"/>
       <c r="W10" s="47"/>
@@ -10606,7 +10604,7 @@
       <c r="AG10" s="47"/>
       <c r="AH10" s="46">
         <f t="shared" si="1"/>
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="AI10" s="54">
         <v>32</v>
@@ -10634,12 +10632,8 @@
       <c r="L11" s="47"/>
       <c r="M11" s="47"/>
       <c r="N11" s="47"/>
-      <c r="O11" s="47">
-        <v>9</v>
-      </c>
-      <c r="P11" s="47">
-        <v>8</v>
-      </c>
+      <c r="O11" s="47"/>
+      <c r="P11" s="47"/>
       <c r="Q11" s="47"/>
       <c r="R11" s="47"/>
       <c r="S11" s="47"/>
@@ -10659,7 +10653,7 @@
       <c r="AG11" s="47"/>
       <c r="AH11" s="46">
         <f t="shared" si="1"/>
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="AI11" s="54">
         <v>8</v>
@@ -10683,18 +10677,10 @@
       <c r="H12" s="46"/>
       <c r="I12" s="46"/>
       <c r="J12" s="47"/>
-      <c r="K12" s="47">
-        <v>10</v>
-      </c>
-      <c r="L12" s="47">
-        <v>10</v>
-      </c>
-      <c r="M12" s="47">
-        <v>8</v>
-      </c>
-      <c r="N12" s="47">
-        <v>8</v>
-      </c>
+      <c r="K12" s="47"/>
+      <c r="L12" s="47"/>
+      <c r="M12" s="47"/>
+      <c r="N12" s="47"/>
       <c r="O12" s="47"/>
       <c r="P12" s="47"/>
       <c r="Q12" s="47"/>
@@ -10716,7 +10702,7 @@
       <c r="AG12" s="47"/>
       <c r="AH12" s="46">
         <f t="shared" si="1"/>
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="AI12" s="54">
         <v>30</v>
@@ -10909,131 +10895,131 @@
       <c r="B17" s="105"/>
       <c r="C17" s="34">
         <f>SUM(C6:C16)</f>
-        <v>184</v>
+        <v>232</v>
       </c>
       <c r="D17" s="34">
         <f>C17-SUM(D6:D16)</f>
-        <v>184</v>
+        <v>232</v>
       </c>
       <c r="E17" s="34">
         <f>D17-SUM(E6:E16)</f>
-        <v>184</v>
+        <v>232</v>
       </c>
       <c r="F17" s="34">
         <f t="shared" ref="F17:AG17" si="2">E17-SUM(F6:F16)</f>
-        <v>184</v>
+        <v>232</v>
       </c>
       <c r="G17" s="34">
         <f t="shared" si="2"/>
-        <v>184</v>
+        <v>232</v>
       </c>
       <c r="H17" s="34">
         <f t="shared" si="2"/>
-        <v>184</v>
+        <v>232</v>
       </c>
       <c r="I17" s="34">
         <f t="shared" si="2"/>
-        <v>184</v>
+        <v>232</v>
       </c>
       <c r="J17" s="34">
         <f t="shared" si="2"/>
-        <v>184</v>
+        <v>232</v>
       </c>
       <c r="K17" s="34">
         <f t="shared" si="2"/>
-        <v>174</v>
+        <v>232</v>
       </c>
       <c r="L17" s="34">
         <f t="shared" si="2"/>
-        <v>164</v>
+        <v>232</v>
       </c>
       <c r="M17" s="34">
         <f t="shared" si="2"/>
-        <v>156</v>
+        <v>232</v>
       </c>
       <c r="N17" s="34">
         <f t="shared" si="2"/>
-        <v>148</v>
+        <v>232</v>
       </c>
       <c r="O17" s="34">
         <f t="shared" si="2"/>
-        <v>139</v>
+        <v>232</v>
       </c>
       <c r="P17" s="34">
         <f t="shared" si="2"/>
-        <v>131</v>
+        <v>232</v>
       </c>
       <c r="Q17" s="34">
         <f t="shared" si="2"/>
-        <v>123</v>
+        <v>232</v>
       </c>
       <c r="R17" s="34">
         <f t="shared" si="2"/>
-        <v>114</v>
+        <v>232</v>
       </c>
       <c r="S17" s="34">
         <f t="shared" si="2"/>
-        <v>106</v>
+        <v>224</v>
       </c>
       <c r="T17" s="34">
         <f t="shared" si="2"/>
-        <v>96</v>
+        <v>216</v>
       </c>
       <c r="U17" s="34">
         <f t="shared" si="2"/>
-        <v>88</v>
+        <v>208</v>
       </c>
       <c r="V17" s="34">
         <f t="shared" si="2"/>
-        <v>78</v>
+        <v>200</v>
       </c>
       <c r="W17" s="34">
         <f t="shared" si="2"/>
-        <v>72</v>
+        <v>192</v>
       </c>
       <c r="X17" s="34">
         <f t="shared" si="2"/>
-        <v>64</v>
+        <v>184</v>
       </c>
       <c r="Y17" s="34">
         <f t="shared" si="2"/>
-        <v>54</v>
+        <v>176</v>
       </c>
       <c r="Z17" s="34">
         <f t="shared" si="2"/>
-        <v>46</v>
+        <v>168</v>
       </c>
       <c r="AA17" s="34">
         <f t="shared" si="2"/>
-        <v>36</v>
+        <v>160</v>
       </c>
       <c r="AB17" s="34">
         <f t="shared" si="2"/>
-        <v>29</v>
+        <v>152</v>
       </c>
       <c r="AC17" s="34">
         <f t="shared" si="2"/>
-        <v>21</v>
+        <v>144</v>
       </c>
       <c r="AD17" s="34">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>136</v>
       </c>
       <c r="AE17" s="34">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>128</v>
       </c>
       <c r="AF17" s="34">
         <f t="shared" si="2"/>
-        <v>-3</v>
+        <v>120</v>
       </c>
       <c r="AG17" s="34">
         <f t="shared" si="2"/>
-        <v>-11</v>
+        <v>112</v>
       </c>
       <c r="AH17" s="35">
         <f>SUM(AH6:AH16)</f>
-        <v>195</v>
+        <v>120</v>
       </c>
     </row>
     <row r="18" spans="1:34" ht="45.75" customHeight="1">
@@ -11043,127 +11029,127 @@
       <c r="B18" s="107"/>
       <c r="C18" s="36">
         <f>SUM(C6:C16)</f>
-        <v>184</v>
+        <v>232</v>
       </c>
       <c r="D18" s="36">
         <f>C18-(SUM(C6:C16)/30)</f>
-        <v>177.86666666666667</v>
+        <v>224.26666666666668</v>
       </c>
       <c r="E18" s="36">
         <f>D18-(SUM(C6:C16)/$D$5)</f>
-        <v>171.73333333333335</v>
+        <v>216.53333333333336</v>
       </c>
       <c r="F18" s="36">
         <f>E18-(SUM(C6:C16)/$D$5)</f>
-        <v>165.60000000000002</v>
+        <v>208.80000000000004</v>
       </c>
       <c r="G18" s="36">
         <f>F18-(SUM(C6:C16)/$D$5)</f>
-        <v>159.4666666666667</v>
+        <v>201.06666666666672</v>
       </c>
       <c r="H18" s="36">
         <f>G18-(SUM(C6:C16)/$D$5)</f>
-        <v>153.33333333333337</v>
+        <v>193.3333333333334</v>
       </c>
       <c r="I18" s="36">
         <f>H18-(SUM($C$6:$C$16)/$D$5)</f>
-        <v>147.20000000000005</v>
+        <v>185.60000000000008</v>
       </c>
       <c r="J18" s="36">
         <f t="shared" ref="J18:AG18" si="3">I18-(SUM($C$6:$C$16)/$D$5)</f>
-        <v>141.06666666666672</v>
+        <v>177.86666666666676</v>
       </c>
       <c r="K18" s="36">
         <f t="shared" si="3"/>
-        <v>134.93333333333339</v>
+        <v>170.13333333333344</v>
       </c>
       <c r="L18" s="36">
         <f t="shared" si="3"/>
-        <v>128.80000000000007</v>
+        <v>162.40000000000012</v>
       </c>
       <c r="M18" s="36">
         <f t="shared" si="3"/>
-        <v>122.66666666666673</v>
+        <v>154.6666666666668</v>
       </c>
       <c r="N18" s="36">
         <f t="shared" si="3"/>
-        <v>116.53333333333339</v>
+        <v>146.93333333333348</v>
       </c>
       <c r="O18" s="36">
         <f t="shared" si="3"/>
-        <v>110.40000000000005</v>
+        <v>139.20000000000016</v>
       </c>
       <c r="P18" s="36">
         <f t="shared" si="3"/>
-        <v>104.26666666666671</v>
+        <v>131.46666666666684</v>
       </c>
       <c r="Q18" s="36">
         <f t="shared" si="3"/>
-        <v>98.133333333333368</v>
+        <v>123.7333333333335</v>
       </c>
       <c r="R18" s="36">
         <f t="shared" si="3"/>
-        <v>92.000000000000028</v>
+        <v>116.00000000000017</v>
       </c>
       <c r="S18" s="36">
         <f t="shared" si="3"/>
-        <v>85.866666666666688</v>
+        <v>108.26666666666684</v>
       </c>
       <c r="T18" s="36">
         <f t="shared" si="3"/>
-        <v>79.733333333333348</v>
+        <v>100.5333333333335</v>
       </c>
       <c r="U18" s="36">
         <f t="shared" si="3"/>
-        <v>73.600000000000009</v>
+        <v>92.800000000000168</v>
       </c>
       <c r="V18" s="36">
         <f t="shared" si="3"/>
-        <v>67.466666666666669</v>
+        <v>85.066666666666833</v>
       </c>
       <c r="W18" s="36">
         <f t="shared" si="3"/>
-        <v>61.333333333333336</v>
+        <v>77.333333333333499</v>
       </c>
       <c r="X18" s="36">
         <f t="shared" si="3"/>
-        <v>55.2</v>
+        <v>69.600000000000165</v>
       </c>
       <c r="Y18" s="36">
         <f t="shared" si="3"/>
-        <v>49.06666666666667</v>
+        <v>61.866666666666831</v>
       </c>
       <c r="Z18" s="36">
         <f t="shared" si="3"/>
-        <v>42.933333333333337</v>
+        <v>54.133333333333496</v>
       </c>
       <c r="AA18" s="36">
         <f t="shared" si="3"/>
-        <v>36.800000000000004</v>
+        <v>46.400000000000162</v>
       </c>
       <c r="AB18" s="36">
         <f t="shared" si="3"/>
-        <v>30.666666666666671</v>
+        <v>38.666666666666828</v>
       </c>
       <c r="AC18" s="36">
         <f t="shared" si="3"/>
-        <v>24.533333333333339</v>
+        <v>30.933333333333493</v>
       </c>
       <c r="AD18" s="36">
         <f t="shared" si="3"/>
-        <v>18.400000000000006</v>
+        <v>23.200000000000159</v>
       </c>
       <c r="AE18" s="36">
         <f t="shared" si="3"/>
-        <v>12.266666666666673</v>
+        <v>15.466666666666825</v>
       </c>
       <c r="AF18" s="36">
         <f t="shared" si="3"/>
-        <v>6.1333333333333391</v>
+        <v>7.7333333333334915</v>
       </c>
       <c r="AG18" s="36">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1.5809575870662229E-13</v>
       </c>
       <c r="AH18" s="37"/>
     </row>
@@ -11203,35 +11189,35 @@
       </c>
       <c r="K19" s="38">
         <f t="shared" si="4"/>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L19" s="38">
         <f t="shared" si="4"/>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M19" s="38">
         <f t="shared" si="4"/>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="N19" s="38">
         <f t="shared" si="4"/>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="O19" s="38">
         <f t="shared" si="4"/>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="P19" s="38">
         <f t="shared" si="4"/>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="Q19" s="38">
         <f t="shared" si="4"/>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="R19" s="38">
         <f t="shared" si="4"/>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="S19" s="38">
         <f t="shared" si="4"/>
@@ -11239,7 +11225,7 @@
       </c>
       <c r="T19" s="38">
         <f t="shared" si="4"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U19" s="38">
         <f t="shared" si="4"/>
@@ -11247,11 +11233,11 @@
       </c>
       <c r="V19" s="38">
         <f t="shared" si="4"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="W19" s="38">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="X19" s="38">
         <f t="shared" si="4"/>
@@ -11259,7 +11245,7 @@
       </c>
       <c r="Y19" s="38">
         <f t="shared" si="4"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Z19" s="38">
         <f t="shared" si="4"/>
@@ -11267,11 +11253,11 @@
       </c>
       <c r="AA19" s="38">
         <f t="shared" si="4"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AB19" s="38">
         <f t="shared" si="4"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AC19" s="38">
         <f t="shared" si="4"/>
